--- a/biology/Zoologie/Erora/Erora.xlsx
+++ b/biology/Zoologie/Erora/Erora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Erora regroupe des lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d’Erora a été donné par Scudder en 1872.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique.
 </t>
@@ -573,23 +589,25 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Erora aura (Godman &amp; Salvin, [1887]); au Mexique et au Costa Rica.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erora aura (Godman &amp; Salvin, ); au Mexique et au Costa Rica.
 Erora badeta (Hewitson, 1873); au Mexique et en Guyane.
 Erora biblia (Hewitson, 1868); au Brésil et au Paraguay et en Guyane.
 Erora caespes (Druce, 1907); en Bolivie.
 Erora campa (Jones, 1912); au Brésil.
 Erora carla (Schaus, 1902); au Mexique, en Colombie et au Brésil.
 Erora facuna (Hewitson, 1877)
-Erora gabina (Godman &amp; Salvin, [1887]); au Mexique, en Costa Rica et à Panama.
+Erora gabina (Godman &amp; Salvin, ); au Mexique, en Costa Rica et à Panama.
 Erora laeta (Edwards, 1862); du Canada (Québec) au Mexique.
-Erora lampetia (Godman &amp; Salvin, [1887]) au Costa Rica.
+Erora lampetia (Godman &amp; Salvin, ) au Costa Rica.
 Erora lorina (Hewitson, 1874); au Venezuela.
 Erora melba (Hewitson, 1877); au Brésil.
 Erora muridosca (Dyar, 1918); au Mexique.
 Erora nana (C. &amp; R. Felder, 1865); en Colombie et en Guyane.
-Erora nitetis (Godman &amp; Salvin, [1887]); au Mexique.
+Erora nitetis (Godman &amp; Salvin, ); au Mexique.
 Erora opisena (Druce, 1912); au Mexique et en Colombie.
 Erora phrosine (Druce, 1909); au Pérou.
 Erora quaderna (Hewitson, 1868); au Mexique.
